--- a/Data/Temp/Yearly-Report-2021-FR322345.xlsx
+++ b/Data/Temp/Yearly-Report-2021-FR322345.xlsx
@@ -14,27 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <x:si>
-    <x:t>290252</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <x:si>
+    <x:t>851608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>998776</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>63001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12600.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75601.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-17</x:t>
+    <x:t>19019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3803.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22822.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-03</x:t>
   </x:si>
   <x:si>
     <x:t>864368</x:t>
@@ -55,12 +76,60 @@
     <x:t>2017-03-11</x:t>
   </x:si>
   <x:si>
+    <x:t>885240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57733.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48179.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28053.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-26</x:t>
+  </x:si>
+  <x:si>
     <x:t>626303</x:t>
   </x:si>
   <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
     <x:t>176623</x:t>
   </x:si>
   <x:si>
@@ -70,9 +139,6 @@
     <x:t>211948</x:t>
   </x:si>
   <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-09-13</x:t>
   </x:si>
   <x:si>
@@ -95,9 +161,6 @@
   </x:si>
   <x:si>
     <x:t>857966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
     <x:t>260118</x:t>
@@ -494,30 +557,30 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
@@ -537,393 +600,393 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
